--- a/LR3/table_1_45.xlsx
+++ b/LR3/table_1_45.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB8A25B-C7BD-4FCA-A44F-8B63486415DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -141,9 +147,6 @@
     <t>Лапыгин</t>
   </si>
   <si>
-    <t>Махмуджужаев</t>
-  </si>
-  <si>
     <t>Пунько</t>
   </si>
   <si>
@@ -172,13 +175,16 @@
   </si>
   <si>
     <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Махмудхужаев</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,41 +553,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" customWidth="1"/>
-    <col min="14" max="14" width="15.19921875" customWidth="1"/>
-    <col min="15" max="15" width="19.8984375" customWidth="1"/>
-    <col min="16" max="16" width="17.8984375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="15" max="15" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>45</v>
       </c>
@@ -600,7 +606,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -636,7 +642,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -676,7 +682,7 @@
         <v>3465.0000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
@@ -721,7 +727,7 @@
         <v>3440.2500000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -766,7 +772,7 @@
         <v>3415.5000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -811,7 +817,7 @@
         <v>3390.7500000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -856,7 +862,7 @@
         <v>3366.0000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -901,7 +907,7 @@
         <v>3341.2500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -946,7 +952,7 @@
         <v>3316.5000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -991,7 +997,7 @@
         <v>3291.7500000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1036,7 +1042,7 @@
         <v>3267.0000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1081,7 +1087,7 @@
         <v>3252.2500000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1126,7 +1132,7 @@
         <v>3237.5000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1171,7 +1177,7 @@
         <v>3222.7500000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1216,7 +1222,7 @@
         <v>3208.0000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1261,7 +1267,7 @@
         <v>3193.2500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1306,7 +1312,7 @@
         <v>3178.5000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1351,7 +1357,7 @@
         <v>3163.7500000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1396,488 +1402,488 @@
         <v>3149.0000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="6"/>
+        <v>61.5</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>3044.2500000000005</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="8"/>
+        <v>44822</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="4"/>
+        <v>3134.2500000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" si="6"/>
-        <v>61.5</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>3044.2500000000005</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="8"/>
-        <v>44822</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="4"/>
-        <v>3134.2500000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4">
-        <f t="shared" si="5"/>
+      <c r="C21" s="5">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>3019.5000000000005</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="8"/>
+        <v>44823</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="4"/>
+        <v>3119.5000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="6"/>
+        <v>60.5</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>2994.7500000000005</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="8"/>
+        <v>44824</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="4"/>
+        <v>3104.7500000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="8"/>
+        <v>44825</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="4"/>
+        <v>3090.0000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="6"/>
+        <v>59.5</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>2945.2500000000005</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="8"/>
+        <v>44826</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="4"/>
+        <v>3075.2500000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>2920.5000000000005</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="8"/>
+        <v>44827</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="4"/>
+        <v>3060.5000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="6"/>
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>2895.7500000000005</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="8"/>
+        <v>44828</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="4"/>
+        <v>3045.7500000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>2871.0000000000005</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="8"/>
+        <v>44829</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="4"/>
+        <v>3031.0000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="6"/>
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>2846.2500000000005</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="8"/>
+        <v>44830</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="4"/>
+        <v>3016.2500000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>2821.5000000000005</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="8"/>
+        <v>44831</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="4"/>
+        <v>3001.5000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="6"/>
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>2796.7500000000005</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="8"/>
+        <v>44832</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>3019.5000000000005</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="8"/>
-        <v>44823</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="4"/>
-        <v>3119.5000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="6"/>
-        <v>60.5</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="0"/>
-        <v>2994.7500000000005</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="8"/>
-        <v>44824</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="4"/>
-        <v>3104.7500000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="0"/>
-        <v>2970.0000000000005</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="8"/>
-        <v>44825</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="4"/>
-        <v>3090.0000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="4">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="6"/>
-        <v>59.5</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="0"/>
-        <v>2945.2500000000005</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="8"/>
-        <v>44826</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="4"/>
-        <v>3075.2500000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="4">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="0"/>
-        <v>2920.5000000000005</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="8"/>
-        <v>44827</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="4"/>
-        <v>3060.5000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="4">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="6"/>
-        <v>58.5</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="0"/>
-        <v>2895.7500000000005</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="8"/>
-        <v>44828</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="4"/>
-        <v>3045.7500000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="4">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="5">
-        <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="0"/>
-        <v>2871.0000000000005</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="8"/>
-        <v>44829</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="4"/>
-        <v>3031.0000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="4">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="6"/>
-        <v>57.5</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="0"/>
-        <v>2846.2500000000005</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="8"/>
-        <v>44830</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="4"/>
-        <v>3016.2500000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="4">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="0"/>
-        <v>2821.5000000000005</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="8"/>
-        <v>44831</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="4"/>
-        <v>3001.5000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="6"/>
-        <v>56.5</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="0"/>
-        <v>2796.7500000000005</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="8"/>
-        <v>44832</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
       <c r="I30" s="5">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -1891,7 +1897,7 @@
         <v>2986.7500000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1936,7 +1942,7 @@
         <v>2972.0000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1981,7 +1987,7 @@
         <v>2957.2500000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -2026,7 +2032,7 @@
         <v>2942.5000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2071,7 +2077,7 @@
         <v>2927.7500000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2116,7 +2122,7 @@
         <v>1576.5000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2161,7 +2167,7 @@
         <v>1574.1250000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2206,7 +2212,7 @@
         <v>1571.7500000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2251,7 +2257,7 @@
         <v>1569.3750000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2264,7 +2270,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>14</v>
@@ -2282,7 +2288,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>15</v>
@@ -2300,7 +2306,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>16</v>
@@ -2318,7 +2324,7 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
@@ -2336,7 +2342,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
   </sheetData>

--- a/LR3/table_1_45.xlsx
+++ b/LR3/table_1_45.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB8A25B-C7BD-4FCA-A44F-8B63486415DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -183,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,41 +547,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="13.8984375" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="19.875" customWidth="1"/>
-    <col min="16" max="16" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" customWidth="1"/>
+    <col min="14" max="14" width="15.19921875" customWidth="1"/>
+    <col min="15" max="15" width="19.8984375" customWidth="1"/>
+    <col min="16" max="16" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="4">
         <v>45</v>
       </c>
@@ -606,7 +600,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -642,11 +636,11 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5">
@@ -682,12 +676,12 @@
         <v>3465.0000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="5">
@@ -727,12 +721,12 @@
         <v>3440.2500000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5">
@@ -772,12 +766,12 @@
         <v>3415.5000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="5">
@@ -817,12 +811,12 @@
         <v>3390.7500000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="5">
@@ -862,12 +856,12 @@
         <v>3366.0000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="5">
@@ -907,12 +901,12 @@
         <v>3341.2500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="5">
@@ -952,12 +946,12 @@
         <v>3316.5000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="5">
@@ -997,12 +991,12 @@
         <v>3291.7500000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="5">
@@ -1042,12 +1036,12 @@
         <v>3267.0000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5">
@@ -1087,12 +1081,12 @@
         <v>3252.2500000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5">
@@ -1132,12 +1126,12 @@
         <v>3237.5000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="5">
@@ -1177,12 +1171,12 @@
         <v>3222.7500000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="5">
@@ -1222,7 +1216,7 @@
         <v>3208.0000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1267,12 +1261,12 @@
         <v>3193.2500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="5">
@@ -1312,7 +1306,7 @@
         <v>3178.5000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1357,7 +1351,7 @@
         <v>3163.7500000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1402,7 +1396,7 @@
         <v>3149.0000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1447,7 +1441,7 @@
         <v>3134.2500000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1492,7 +1486,7 @@
         <v>3119.5000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1537,7 +1531,7 @@
         <v>3104.7500000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1582,7 +1576,7 @@
         <v>3090.0000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1627,7 +1621,7 @@
         <v>3075.2500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1672,7 +1666,7 @@
         <v>3060.5000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -1717,7 +1711,7 @@
         <v>3045.7500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1762,7 +1756,7 @@
         <v>3031.0000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -1807,7 +1801,7 @@
         <v>3016.2500000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -1852,7 +1846,7 @@
         <v>3001.5000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -1897,7 +1891,7 @@
         <v>2986.7500000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1942,7 +1936,7 @@
         <v>2972.0000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1987,7 +1981,7 @@
         <v>2957.2500000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -2032,7 +2026,7 @@
         <v>2942.5000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2077,7 +2071,7 @@
         <v>2927.7500000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2122,7 +2116,7 @@
         <v>1576.5000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2167,7 +2161,7 @@
         <v>1574.1250000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2212,7 +2206,7 @@
         <v>1571.7500000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2257,7 +2251,7 @@
         <v>1569.3750000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2270,7 +2264,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>14</v>
@@ -2288,7 +2282,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>15</v>
@@ -2306,7 +2300,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>16</v>
@@ -2324,7 +2318,7 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
@@ -2342,7 +2336,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="B47" s="2"/>
     </row>
   </sheetData>
